--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:07:07+00:00</t>
+    <t>2022-02-23T10:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:14:18+00:00</t>
+    <t>2022-02-23T10:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:23:47+00:00</t>
+    <t>2022-02-23T10:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:42:10+00:00</t>
+    <t>2022-02-23T10:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:49:18+00:00</t>
+    <t>2022-02-23T11:09:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:09:08+00:00</t>
+    <t>2022-02-23T11:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/StructureDefinition/omang-patient</t>
+    <t>http://simplifier.net/ISiK/StructureDefinition/omang-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:19:10+00:00</t>
+    <t>2022-02-23T11:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-patient</t>
+    <t>http://simplifier.net/ISiK/StructureDefinition/bw-patient</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:46:26+00:00</t>
+    <t>2022-02-23T12:05:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:05:26+00:00</t>
+    <t>2022-02-23T12:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>B-TECHBW</t>
+    <t>gematik</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:18:43+00:00</t>
+    <t>2022-02-23T12:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:22:10+00:00</t>
+    <t>2022-02-23T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T07:35:42+00:00</t>
+    <t>2022-03-07T07:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
